--- a/靳明明/测试用例-靳明明.xlsx
+++ b/靳明明/测试用例-靳明明.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinmingming\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\OnePillTest_2020\靳明明\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98B0633-E1A1-4440-9E68-A454125D3F31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F141231C-FEA7-4079-8738-F95EF625133F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{85AEE31A-9795-4164-8A49-6C0EA3CE26CE}"/>
   </bookViews>
@@ -1192,10 +1192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C836A582-90C3-45F0-8359-3E0BF18D28AE}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="F13" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1239,7 +1239,9 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1263,7 +1265,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -1288,7 +1290,7 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -1313,7 +1315,7 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="114" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -1438,7 +1440,7 @@
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>33</v>
@@ -1463,7 +1465,7 @@
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>33</v>
@@ -1488,7 +1490,7 @@
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>33</v>
@@ -1538,7 +1540,7 @@
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="114" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
@@ -1984,36 +1986,6 @@
       <c r="H31" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
